--- a/genshin/428077680996486450_2020-08-27_14-00-02.xlsx
+++ b/genshin/428077680996486450_2020-08-27_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-09-20 14:54:30</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44094.62118055556</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-08-28 07:20:11</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44071.30568287037</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-08-28 02:39:33</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44071.11079861111</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-08-28 00:19:59</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44071.01387731481</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-08-27 23:32:28</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44070.98087962963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -910,10 +916,8 @@
           <t>3419949572</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-08-27 21:57:34</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44070.91497685185</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -977,10 +981,8 @@
           <t>3417812058</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-08-27 21:35:05</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44070.89936342592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1048,10 +1050,8 @@
           <t>3417812058</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-08-27 21:29:29</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44070.89547453704</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1120,10 +1120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-08-27 20:17:08</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44070.84523148148</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1199,10 +1197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:45:12</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44070.82305555556</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1270,10 +1266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:12:19</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44070.80021990741</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1345,10 +1339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:11:47</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44070.79984953703</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1417,10 +1409,8 @@
           <t>3417812058</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-08-27 19:02:22</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44070.79331018519</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1490,10 +1480,8 @@
           <t>3417812058</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:39:43</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44070.77758101852</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1562,10 +1550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:24:23</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44070.76693287037</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1629,10 +1615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:04:06</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44070.75284722223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1696,10 +1680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-08-27 18:01:58</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44070.75136574074</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1768,10 +1750,8 @@
           <t>3418666469</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:54:29</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44070.74616898148</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1835,10 +1815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:51:49</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44070.74431712963</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1906,10 +1884,8 @@
           <t>3418620467</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:44:21</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44070.73913194444</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1973,10 +1949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:43:37</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44070.73862268519</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2040,10 +2014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:43:28</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44070.73851851852</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2111,10 +2083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:39:46</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44070.73594907407</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2178,10 +2148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:38:47</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44070.7352662037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2257,10 +2225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:30:53</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44070.7297800926</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2332,10 +2298,8 @@
           <t>3418552368</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:30:03</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44070.72920138889</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2407,10 +2371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:29:36</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44070.72888888889</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2474,10 +2436,8 @@
           <t>3417951945</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:28:23</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44070.72804398148</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2546,10 +2506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:27:31</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44070.72744212963</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2617,10 +2575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:23:17</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44070.72450231481</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2693,10 +2649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:18:02</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44070.72085648148</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2772,10 +2726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:11:54</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44070.71659722222</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2839,10 +2791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:11:02</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44070.71599537037</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2906,10 +2856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-08-27 17:00:29</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44070.70866898148</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2985,10 +2933,8 @@
           <t>3417798169</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:53:56</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44070.70412037037</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3052,10 +2998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:52:59</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44070.70346064815</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3119,10 +3063,8 @@
           <t>3418377223</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:51:29</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44070.70241898148</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3194,10 +3136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:51:26</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44070.70238425926</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3265,10 +3205,8 @@
           <t>3418367392</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:50:28</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44070.70171296296</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3336,10 +3274,8 @@
           <t>3418370544</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:49:23</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44070.70096064815</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3411,10 +3347,8 @@
           <t>3417798169</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:48:15</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44070.70017361111</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3482,10 +3416,8 @@
           <t>3417951945</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:47:35</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44070.69971064815</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3553,10 +3485,8 @@
           <t>3417969718</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:45:51</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44070.69850694444</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3624,10 +3554,8 @@
           <t>3417969718</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:45:19</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44070.69813657407</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3695,10 +3623,8 @@
           <t>3417812058</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:44:46</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44070.69775462963</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3766,10 +3692,8 @@
           <t>3417798169</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:44:42</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44070.69770833333</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3837,10 +3761,8 @@
           <t>3417798169</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:43:11</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44070.69665509259</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3904,10 +3826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:43:08</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44070.69662037037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3983,10 +3903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:42:21</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44070.69607638889</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4062,10 +3980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:41:06</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44070.69520833333</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4133,10 +4049,8 @@
           <t>3418322680</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:40:16</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44070.69462962963</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4212,10 +4126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:40:09</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44070.69454861111</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4287,10 +4199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:39:55</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44070.69438657408</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4367,10 +4277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:39:50</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44070.69432870371</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4446,10 +4354,8 @@
           <t>3418184058</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:39:19</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44070.69396990741</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4517,10 +4423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:37:07</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44070.69244212963</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4589,10 +4493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:36:59</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44070.69234953704</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4660,10 +4562,8 @@
           <t>3418312368</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:36:40</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44070.69212962963</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4740,10 +4640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:34:52</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44070.69087962963</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4816,10 +4714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:34:42</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44070.69076388889</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4895,10 +4791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:34:07</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44070.6903587963</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4970,10 +4864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:31:18</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44070.68840277778</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5049,10 +4941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:30:05</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44070.68755787037</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5120,10 +5010,8 @@
           <t>3417798169</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:29:03</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44070.68684027778</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5199,10 +5087,8 @@
           <t>3417951945</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:28:43</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44070.6866087963</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5271,10 +5157,8 @@
           <t>3418276087</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:28:33</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44070.68649305555</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5342,10 +5226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:26:44</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44070.68523148148</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5413,10 +5295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:26:03</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44070.68475694444</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5476,10 +5356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:25:33</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44070.68440972222</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5547,10 +5425,8 @@
           <t>3418260615</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:24:43</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44070.68383101852</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5615,10 +5491,8 @@
           <t>3418249844</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:24:10</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44070.68344907407</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5686,10 +5560,8 @@
           <t>3417969718</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:23:58</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44070.68331018519</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5757,10 +5629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:22:39</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44070.68239583333</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5828,10 +5698,8 @@
           <t>3418252142</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:22:22</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44070.68219907407</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5907,10 +5775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:22:19</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44070.68216435185</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5974,10 +5840,8 @@
           <t>3417708064</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:19:53</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44070.68047453704</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6053,10 +5917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:17:45</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44070.67899305555</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6124,10 +5986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:17:41</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44070.67894675926</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6203,10 +6063,8 @@
           <t>3418222079</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:15:03</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44070.67711805556</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6279,10 +6137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:09:08</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44070.67300925926</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6358,10 +6214,8 @@
           <t>3418172527</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:04:31</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44070.66980324074</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6425,10 +6279,8 @@
           <t>3417722463</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:02:55</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44070.66869212963</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6496,10 +6348,8 @@
           <t>3417798169</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:02:22</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44070.66831018519</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6567,10 +6417,8 @@
           <t>3417969718</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:01:40</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44070.66782407407</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6638,10 +6486,8 @@
           <t>3417951945</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:01:04</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44070.66740740741</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6709,10 +6555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-08-27 16:00:52</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44070.66726851852</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6787,10 +6631,8 @@
           <t>3418155101</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:59:10</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44070.66608796296</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6866,10 +6708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:58:14</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44070.66543981482</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6933,10 +6773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:56:42</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44070.664375</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7005,10 +6843,8 @@
           <t>3418138063</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:55:52</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44070.6637962963</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7076,10 +6912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:55:27</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44070.66350694445</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7147,10 +6981,8 @@
           <t>3418126817</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:52:58</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44070.66178240741</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7218,10 +7050,8 @@
           <t>3418126217</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:52:33</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44070.66149305556</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7293,10 +7123,8 @@
           <t>3418125703</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:52:11</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44070.66123842593</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7364,10 +7192,8 @@
           <t>3418125624</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:52:08</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44070.6612037037</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7440,10 +7266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:50:14</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44070.65988425926</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7507,10 +7331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:50:06</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44070.65979166667</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7586,10 +7408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:46:59</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44070.65762731482</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7653,10 +7473,8 @@
           <t>3418102425</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:46:31</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44070.65730324074</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7728,10 +7546,8 @@
           <t>3417812058</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:46:21</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44070.6571875</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7800,10 +7616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:44:56</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44070.6562037037</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7871,10 +7685,8 @@
           <t>3417722463</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:44:40</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44070.65601851852</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7950,10 +7762,8 @@
           <t>3418075436</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:39:36</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44070.6525</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8029,10 +7839,8 @@
           <t>3417798169</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:38:07</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44070.65146990741</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8108,10 +7916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:33:56</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44070.64856481482</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8187,10 +7993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:32:35</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44070.64762731481</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8266,10 +8070,8 @@
           <t>3418041829</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:31:35</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44070.64693287037</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8342,10 +8144,8 @@
           <t>3418041328</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:31:14</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44070.64668981481</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8409,10 +8209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:28:28</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44070.64476851852</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8488,10 +8286,8 @@
           <t>3418019709</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:28:20</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44070.64467592593</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8563,10 +8359,8 @@
           <t>3418014338</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:26:02</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44070.6430787037</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8630,10 +8424,8 @@
           <t>3417836572</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:23:22</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44070.64122685185</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8701,10 +8493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:22:36</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44070.64069444445</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8772,10 +8562,8 @@
           <t>3417988876</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:20:16</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44070.63907407408</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8843,10 +8631,8 @@
           <t>3417988765</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:20:11</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44070.63901620371</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8922,10 +8708,8 @@
           <t>3417990447</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:18:49</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44070.63806712963</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8997,10 +8781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:17:07</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44070.63688657407</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9072,10 +8854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:16:59</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44070.63679398148</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9147,10 +8927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:15:45</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44070.6359375</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9222,10 +9000,8 @@
           <t>3417980489</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:15:34</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44070.63581018519</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9293,10 +9069,8 @@
           <t>3417969718</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:14:59</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44070.63540509259</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9364,10 +9138,8 @@
           <t>3417971602</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:14:51</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44070.6353125</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9443,10 +9215,8 @@
           <t>3417968664</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:14:14</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44070.63488425926</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9518,10 +9288,8 @@
           <t>3417951945</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:09:12</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44070.63138888889</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9589,10 +9357,8 @@
           <t>3417951830</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:09:07</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44070.63133101852</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9652,10 +9418,8 @@
           <t>3417884921</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:07:11</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44070.62998842593</v>
       </c>
       <c r="I127" t="n">
         <v>3</v>
@@ -9719,10 +9483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:03:44</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44070.62759259259</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9790,10 +9552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:03:28</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44070.62740740741</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9861,10 +9621,8 @@
           <t>3417836572</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:03:19</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44070.62730324074</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9932,10 +9690,8 @@
           <t>3417817090</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:02:53</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44070.62700231482</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10003,10 +9759,8 @@
           <t>3417798169</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:02:33</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44070.62677083333</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10074,10 +9828,8 @@
           <t>3417722463</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:02:07</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44070.62646990741</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10145,10 +9897,8 @@
           <t>3417726505</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:01:34</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44070.62608796296</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10216,10 +9966,8 @@
           <t>3417714645</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-08-27 15:00:52</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44070.62560185185</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10287,10 +10035,8 @@
           <t>3417904789</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:59:53</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44070.62491898148</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10358,10 +10104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:58:25</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44070.62390046296</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10437,10 +10181,8 @@
           <t>3417907586</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:58:20</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44070.62384259259</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10508,10 +10250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:57:17</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44070.62311342593</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10579,10 +10319,8 @@
           <t>3417884921</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:54:52</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44070.62143518519</v>
       </c>
       <c r="I140" t="n">
         <v>8</v>
@@ -10646,10 +10384,8 @@
           <t>3417892866</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:54:44</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44070.6213425926</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10713,10 +10449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:54:29</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44070.62116898148</v>
       </c>
       <c r="I142" t="n">
         <v>6</v>
@@ -10788,10 +10522,8 @@
           <t>3417887219</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:54:09</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44070.6209375</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10863,10 +10595,8 @@
           <t>3417883696</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:53:58</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44070.62081018519</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10934,10 +10664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:53:20</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44070.62037037037</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11001,10 +10729,8 @@
           <t>3417885843</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:53:07</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44070.62021990741</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11076,10 +10802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:50:01</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44070.61806712963</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11139,10 +10863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:49:46</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44070.61789351852</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11202,10 +10924,8 @@
           <t>3417864867</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:48:39</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44070.61711805555</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11281,10 +11001,8 @@
           <t>3417866445</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:48:35</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44070.61707175926</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11344,10 +11062,8 @@
           <t>3417866204</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:48:25</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44070.61695601852</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11407,10 +11123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:47:44</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44070.61648148148</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11474,10 +11188,8 @@
           <t>3417857799</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:47:03</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44070.61600694444</v>
       </c>
       <c r="I153" t="n">
         <v>11</v>
@@ -11554,10 +11266,8 @@
           <t>3417861236</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:45:53</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44070.61519675926</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11625,10 +11335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:45:20</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44070.61481481481</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11705,10 +11413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:43:32</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44070.61356481481</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11785,10 +11491,8 @@
           <t>3417839880</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:43:31</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44070.61355324074</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11852,10 +11556,8 @@
           <t>3417838566</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:42:30</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44070.61284722222</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11931,10 +11633,8 @@
           <t>3417841312</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:42:03</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44070.61253472222</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11998,10 +11698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:40:58</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44070.61178240741</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12065,10 +11763,8 @@
           <t>3417836572</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:40:56</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44070.61175925926</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12132,10 +11828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:40:25</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44070.61140046296</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12199,10 +11893,8 @@
           <t>3417827714</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:39:25</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44070.61070601852</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12270,10 +11962,8 @@
           <t>3417824418</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:39:19</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44070.61063657407</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12337,10 +12027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:39:04</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44070.61046296296</v>
       </c>
       <c r="I165" t="n">
         <v>15</v>
@@ -12412,10 +12100,8 @@
           <t>3417823905</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:38:56</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44070.61037037037</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12483,10 +12169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:38:30</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44070.61006944445</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12558,10 +12242,8 @@
           <t>3417831465</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:38:26</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44070.61002314815</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12629,10 +12311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:38:24</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44070.61</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12696,10 +12376,8 @@
           <t>3417812058</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:37:05</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44070.60908564815</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12767,10 +12445,8 @@
           <t>3417818389</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:36:09</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44070.6084375</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12846,10 +12522,8 @@
           <t>3417809345</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:35:33</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44070.60802083334</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12913,10 +12587,8 @@
           <t>3417817090</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:35:10</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44070.60775462963</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12976,10 +12648,8 @@
           <t>3417812058</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:35:06</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44070.60770833334</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13055,10 +12725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:34:49</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44070.60751157408</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13126,10 +12794,8 @@
           <t>3417810196</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:33:41</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44070.60672453704</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13189,10 +12855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:32:24</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44070.60583333333</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13264,10 +12928,8 @@
           <t>3417798169</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:32:15</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44070.60572916667</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13343,10 +13005,8 @@
           <t>3417798068</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:32:10</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44070.6056712963</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13418,10 +13078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:31:12</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44070.605</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13485,10 +13143,8 @@
           <t>3417773554</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:29:27</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44070.60378472223</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13556,10 +13212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:29:25</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44070.60376157407</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13631,10 +13285,8 @@
           <t>3417788717</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:28:57</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44070.6034375</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13698,10 +13350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:27:51</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44070.60267361111</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13765,10 +13415,8 @@
           <t>3417778831</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:27:44</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44070.60259259259</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13832,10 +13480,8 @@
           <t>3417778705</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:27:38</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44070.60252314815</v>
       </c>
       <c r="I186" t="n">
         <v>6</v>
@@ -13911,10 +13557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:26:54</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44070.60201388889</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13982,10 +13626,8 @@
           <t>3417785978</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:26:51</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44070.60197916667</v>
       </c>
       <c r="I188" t="n">
         <v>5</v>
@@ -14049,10 +13691,8 @@
           <t>3417780444</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:26:24</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44070.60166666667</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14124,10 +13764,8 @@
           <t>3417773554</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:25:03</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44070.60072916667</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14199,10 +13837,8 @@
           <t>3417767751</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:24:25</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44070.60028935185</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14270,10 +13906,8 @@
           <t>3417763905</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:24:08</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44070.60009259259</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14337,10 +13971,8 @@
           <t>3417771092</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:23:12</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44070.59944444444</v>
       </c>
       <c r="I193" t="n">
         <v>3</v>
@@ -14409,10 +14041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:23:10</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44070.5994212963</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14489,10 +14119,8 @@
           <t>3417761376</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:22:22</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44070.59886574074</v>
       </c>
       <c r="I195" t="n">
         <v>8</v>
@@ -14568,10 +14196,8 @@
           <t>3417754498</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:22:00</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44070.59861111111</v>
       </c>
       <c r="I196" t="n">
         <v>4</v>
@@ -14643,10 +14269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:21:47</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44070.59846064815</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14718,10 +14342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:21:19</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44070.59813657407</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14785,10 +14407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:20:39</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44070.59767361111</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14856,10 +14476,8 @@
           <t>3417750546</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:19:02</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44070.59655092593</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -14927,10 +14545,8 @@
           <t>3417720869</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:18:54</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44070.59645833333</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14994,10 +14610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:18:36</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44070.59625</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15069,10 +14683,8 @@
           <t>3417745898</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:18:25</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44070.59612268519</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15148,10 +14760,8 @@
           <t>3417738847</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:17:49</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44070.59570601852</v>
       </c>
       <c r="I204" t="n">
         <v>9</v>
@@ -15219,10 +14829,8 @@
           <t>3417738337</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:17:26</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44070.59543981482</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15298,10 +14906,8 @@
           <t>3417736957</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:16:25</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44070.59473379629</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15377,10 +14983,8 @@
           <t>3417736810</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:16:18</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44070.59465277778</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15452,10 +15056,8 @@
           <t>3417736178</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:15:50</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44070.5943287037</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15531,10 +15133,8 @@
           <t>3417732078</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:15:39</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44070.59420138889</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15599,10 +15199,8 @@
           <t>3417735726</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:15:30</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44070.59409722222</v>
       </c>
       <c r="I210" t="n">
         <v>2</v>
@@ -15678,10 +15276,8 @@
           <t>3417740240</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:15:16</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44070.59393518518</v>
       </c>
       <c r="I211" t="n">
         <v>25</v>
@@ -15757,10 +15353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:15:02</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44070.59377314815</v>
       </c>
       <c r="I212" t="n">
         <v>82</v>
@@ -15824,10 +15418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:14:59</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44070.59373842592</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15899,10 +15491,8 @@
           <t>3417729817</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:14:57</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44070.59371527778</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -15966,10 +15556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:14:46</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44070.59358796296</v>
       </c>
       <c r="I215" t="n">
         <v>5</v>
@@ -16033,10 +15621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:14:36</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44070.59347222222</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16104,10 +15690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:13:43</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44070.5928587963</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16175,10 +15759,8 @@
           <t>3417722463</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:13:07</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44070.59244212963</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16254,10 +15836,8 @@
           <t>3417727275</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:13:07</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44070.59244212963</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16321,10 +15901,8 @@
           <t>3417718230</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:12:50</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44070.59224537037</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16388,10 +15966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:12:36</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44070.59208333334</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16459,10 +16035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:12:34</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44070.59206018518</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16526,10 +16100,8 @@
           <t>3417726505</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:12:33</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44070.59204861111</v>
       </c>
       <c r="I223" t="n">
         <v>6</v>
@@ -16597,10 +16169,8 @@
           <t>3417726325</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:12:25</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44070.59195601852</v>
       </c>
       <c r="I224" t="n">
         <v>55</v>
@@ -16672,10 +16242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:12:17</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44070.59186342593</v>
       </c>
       <c r="I225" t="n">
         <v>255</v>
@@ -16752,10 +16320,8 @@
           <t>3417720903</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:11:59</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44070.59165509259</v>
       </c>
       <c r="I226" t="n">
         <v>14</v>
@@ -16832,10 +16398,8 @@
           <t>3417720869</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:11:57</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44070.59163194444</v>
       </c>
       <c r="I227" t="n">
         <v>2</v>
@@ -16903,10 +16467,8 @@
           <t>3417702809</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:11:33</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44070.59135416667</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16974,10 +16536,8 @@
           <t>3417714645</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:11:14</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44070.59113425926</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17045,10 +16605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:11:13</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44070.59112268518</v>
       </c>
       <c r="I230" t="n">
         <v>4</v>
@@ -17116,10 +16674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:11:08</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44070.59106481481</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17187,10 +16743,8 @@
           <t>3417709387</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:10:52</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44070.59087962963</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17250,10 +16804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:10:24</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44070.59055555556</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17317,10 +16869,8 @@
           <t>3417708064</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:09:57</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44070.59024305556</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17388,10 +16938,8 @@
           <t>3417704129</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:09:55</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44070.5902199074</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17459,10 +17007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:09:28</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44070.5899074074</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17534,10 +17080,8 @@
           <t>3417712061</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:09:25</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44070.58987268519</v>
       </c>
       <c r="I237" t="n">
         <v>10</v>
@@ -17609,10 +17153,8 @@
           <t>3417703394</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:09:22</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44070.58983796297</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17684,10 +17226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:09:11</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44070.58971064815</v>
       </c>
       <c r="I239" t="n">
         <v>3</v>
@@ -17763,10 +17303,8 @@
           <t>3417702809</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:08:56</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44070.58953703703</v>
       </c>
       <c r="I240" t="n">
         <v>5</v>
@@ -17838,10 +17376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:08:42</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44070.589375</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17917,10 +17453,8 @@
           <t>3417702214</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:08:32</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44070.58925925926</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -17988,10 +17522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:08:13</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44070.58903935185</v>
       </c>
       <c r="I243" t="n">
         <v>6</v>
@@ -18055,10 +17587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:07:23</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44070.58846064815</v>
       </c>
       <c r="I244" t="n">
         <v>95</v>
@@ -18126,10 +17656,8 @@
           <t>3417689891</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:06:56</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44070.58814814815</v>
       </c>
       <c r="I245" t="n">
         <v>3</v>
@@ -18193,10 +17721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:06:14</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44070.58766203704</v>
       </c>
       <c r="I246" t="n">
         <v>2</v>
@@ -18260,10 +17786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:06:13</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44070.58765046296</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18336,10 +17860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:05:38</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44070.58724537037</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18412,10 +17934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:05:32</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44070.58717592592</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18487,10 +18007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:05:24</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44070.58708333333</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18566,10 +18084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:05:22</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44070.58706018519</v>
       </c>
       <c r="I251" t="n">
         <v>184</v>
@@ -18645,10 +18161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:05:19</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44070.58702546296</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18720,10 +18234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:05:07</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44070.58688657408</v>
       </c>
       <c r="I253" t="n">
         <v>11</v>
@@ -18787,10 +18299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:05:05</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44070.58686342592</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18854,10 +18364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:04:58</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44070.58678240741</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18925,10 +18433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:04:45</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44070.58663194445</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19000,10 +18506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:04:38</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44070.58655092592</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19079,10 +18583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:04:26</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44070.58641203704</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19151,10 +18653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:04:19</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44070.58633101852</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19222,10 +18722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:03:55</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44070.58605324074</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19298,10 +18796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:03:53</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44070.58603009259</v>
       </c>
       <c r="I261" t="n">
         <v>3</v>
@@ -19373,10 +18869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:03:42</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44070.58590277778</v>
       </c>
       <c r="I262" t="n">
         <v>6</v>
@@ -19445,10 +18939,8 @@
           <t>3417683804</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:03:30</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44070.58576388889</v>
       </c>
       <c r="I263" t="n">
         <v>5</v>
@@ -19508,10 +19000,8 @@
           <t>3417679147</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:03:30</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44070.58576388889</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19576,10 +19066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:03:17</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44070.58561342592</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19655,10 +19143,8 @@
           <t>3417683398</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:03:12</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44070.58555555555</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19726,10 +19212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:03:11</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44070.58554398148</v>
       </c>
       <c r="I267" t="n">
         <v>2</v>
@@ -19806,10 +19290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:03:10</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44070.58553240741</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19881,10 +19363,8 @@
           <t>3417674598</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:03:09</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44070.58552083333</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19960,10 +19440,8 @@
           <t>3417683305</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:03:08</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44070.58550925926</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20027,10 +19505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:03:00</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44070.58541666667</v>
       </c>
       <c r="I271" t="n">
         <v>2</v>
@@ -20106,10 +19582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:02:40</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44070.58518518518</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20181,10 +19655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:02:39</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44070.58517361111</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20260,10 +19732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:02:38</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44070.58516203704</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20332,10 +19802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:02:38</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44070.58516203704</v>
       </c>
       <c r="I275" t="n">
         <v>210</v>
@@ -20407,10 +19875,8 @@
           <t>3417673779</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:02:33</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44070.58510416667</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20486,10 +19952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:02:32</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44070.58509259259</v>
       </c>
       <c r="I277" t="n">
         <v>14</v>
@@ -20561,10 +20025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:02:28</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44070.5850462963</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20640,10 +20102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:02:28</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44070.5850462963</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20710,10 +20170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:02:28</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44070.5850462963</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20781,10 +20239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:02:20</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44070.58495370371</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -20852,10 +20308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:02:20</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44070.58495370371</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20931,10 +20385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:02:16</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44070.58490740741</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21011,10 +20463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:02:10</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44070.58483796296</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21082,10 +20532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:01:59</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44070.58471064815</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21153,10 +20601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:01:56</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44070.58467592593</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21228,10 +20674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:01:56</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44070.58467592593</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21303,10 +20747,8 @@
           <t>3417681667</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:01:56</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44070.58467592593</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21366,10 +20808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:01:41</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44070.58450231481</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21437,10 +20877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:01:29</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44070.58436342593</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21516,10 +20954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:01:27</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44070.58434027778</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21587,10 +21023,8 @@
           <t>3417676211</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:01:22</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44070.58428240741</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21658,10 +21092,8 @@
           <t>3417676222</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:01:22</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44070.58428240741</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21733,10 +21165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:01:21</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44070.58427083334</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21812,10 +21242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:01:11</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44070.58415509259</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21883,10 +21311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:01:04</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44070.58407407408</v>
       </c>
       <c r="I296" t="n">
         <v>7</v>
@@ -21950,10 +21376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:59</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44070.58401620371</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22017,10 +21441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:56</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44070.58398148148</v>
       </c>
       <c r="I298" t="n">
         <v>3</v>
@@ -22093,10 +21515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:56</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44070.58398148148</v>
       </c>
       <c r="I299" t="n">
         <v>137</v>
@@ -22160,10 +21580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:55</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44070.58396990741</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22232,10 +21650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:53</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44070.58394675926</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22303,10 +21719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:50</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44070.58391203704</v>
       </c>
       <c r="I302" t="n">
         <v>15</v>
@@ -22374,10 +21788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:49</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44070.58390046296</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22445,10 +21857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:42</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44070.58381944444</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22520,10 +21930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:41</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44070.58380787037</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22599,10 +22007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:35</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44070.58373842593</v>
       </c>
       <c r="I306" t="n">
         <v>2</v>
@@ -22670,10 +22076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:35</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44070.58373842593</v>
       </c>
       <c r="I307" t="n">
         <v>325</v>
@@ -22745,10 +22149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:34</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44070.58372685185</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22825,10 +22227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:29</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44070.58366898148</v>
       </c>
       <c r="I309" t="n">
         <v>2</v>
@@ -22896,10 +22296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:25</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44070.58362268518</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22971,10 +22369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:24</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44070.58361111111</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23050,10 +22446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-08-27 14:00:17</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44070.58353009259</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
